--- a/02_SC_TA/Pilotný projekt/filtered_bridges_data.xlsx
+++ b/02_SC_TA/Pilotný projekt/filtered_bridges_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1337,274 +1337,320 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>M2841</t>
+          <t>M5534</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1406-001 most nad cestou I/63 pred mestom Dunajská Streda v km 0,435</t>
+          <t>1403-003 most cez zavlažovací kanál pred obcou Sap v km 4,905</t>
         </is>
       </c>
       <c r="C40" t="n">
         <v>5</v>
       </c>
       <c r="D40" t="n">
-        <v>45.33</v>
+        <v>5</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps?q=47.997260233,17.568302054</t>
+          <t>https://www.google.com/maps?q=47.824933394,17.631599313</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>M4669</t>
+          <t>M2841</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>50010-001 Most cez potok Vrbovčianka v meste Senica</t>
+          <t>1406-001 most nad cestou I/63 pred mestom Dunajská Streda v km 0,435</t>
         </is>
       </c>
       <c r="C41" t="n">
         <v>5</v>
       </c>
       <c r="D41" t="n">
-        <v>15</v>
+        <v>45.33</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps?q=48.672387567,17.335745444</t>
+          <t>https://www.google.com/maps?q=47.997260233,17.568302054</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>M2694</t>
+          <t>M5271</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Most cez inundačné územie pred Jaslovskými Bohuniciami</t>
+          <t>5007-003 Most cez Štefanovský potok v obci Štefanov</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>11.64</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps?q=48.478650534,17.651248492</t>
+          <t>https://www.google.com/maps?q=48.685507527,17.202073908</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>M185</t>
+          <t>M4669</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Most nad diaľnicou medzi obcami Kostoľany a Madunice</t>
+          <t>50010-001 Most cez potok Vrbovčianka v meste Senica</t>
         </is>
       </c>
       <c r="C43" t="n">
         <v>5</v>
       </c>
       <c r="D43" t="n">
-        <v>65.01000000000001</v>
+        <v>15</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps?q=48.50695543,17.768098867</t>
+          <t>https://www.google.com/maps?q=48.672387567,17.335745444</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>M6948</t>
+          <t>M2694</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1421-001 most cez zavlažovací kanál v k.ú. obce Gabčíkovo v km 1,732</t>
+          <t>Most cez inundačné územie pred Jaslovskými Bohuniciami</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D44" t="n">
-        <v>18.3</v>
+        <v>11.64</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps?q=47.88453567,17.557448439</t>
+          <t>https://www.google.com/maps?q=48.478650534,17.651248492</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>M519</t>
+          <t>M185</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1421-004 Most cez vodnú nádrž Gabčíkovo v km 2,965</t>
+          <t>Most nad diaľnicou medzi obcami Kostoľany a Madunice</t>
         </is>
       </c>
       <c r="C45" t="n">
         <v>5</v>
       </c>
       <c r="D45" t="n">
-        <v>242</v>
+        <v>65.01000000000001</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps?q=47.881548989,17.540479247</t>
+          <t>https://www.google.com/maps?q=48.50695543,17.768098867</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>M4173</t>
+          <t>M6948</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1421-005 most cez priesakový kanál SVD v km 3,960</t>
+          <t>1421-001 most cez zavlažovací kanál v k.ú. obce Gabčíkovo v km 1,732</t>
         </is>
       </c>
       <c r="C46" t="n">
         <v>5</v>
       </c>
       <c r="D46" t="n">
-        <v>43.94</v>
+        <v>18.3</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps?q=47.879812361,17.530596158</t>
+          <t>https://www.google.com/maps?q=47.88453567,17.557448439</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>M1854</t>
+          <t>M519</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1422-002 most cez zavlažovací kanál v obci Kľúčovec v km 4,670</t>
+          <t>1421-004 Most cez vodnú nádrž Gabčíkovo v km 2,965</t>
         </is>
       </c>
       <c r="C47" t="n">
         <v>5</v>
       </c>
       <c r="D47" t="n">
-        <v>10.4</v>
+        <v>242</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps?q=47.79425,17.71552</t>
+          <t>https://www.google.com/maps?q=47.881548989,17.540479247</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>M6054</t>
+          <t>M4173</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Most cez Dudváh pred obcou Siladice</t>
+          <t>1421-005 most cez priesakový kanál SVD v km 3,960</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
-        <v>19.5</v>
+        <v>43.94</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps?q=48.366081596,17.736200931</t>
+          <t>https://www.google.com/maps?q=47.879812361,17.530596158</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>M267</t>
+          <t>M1854</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1428-003 most cez Chotárny kanál za obcou Okoč v km 3,583</t>
+          <t>1422-002 most cez zavlažovací kanál v obci Kľúčovec v km 4,670</t>
         </is>
       </c>
       <c r="C49" t="n">
         <v>5</v>
       </c>
       <c r="D49" t="n">
-        <v>20</v>
+        <v>10.4</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps?q=47.909137763,17.773245184</t>
+          <t>https://www.google.com/maps?q=47.79425,17.71552</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>M5082</t>
+          <t>M6054</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Most medzi obcami Šintava a Pata</t>
+          <t>Most cez Dudváh pred obcou Siladice</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D50" t="n">
-        <v>50.04</v>
+        <v>19.5</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps?q=48.270445469,17.836124989</t>
+          <t>https://www.google.com/maps?q=48.366081596,17.736200931</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
+          <t>M267</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1428-003 most cez Chotárny kanál za obcou Okoč v km 3,583</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>5</v>
+      </c>
+      <c r="D51" t="n">
+        <v>20</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps?q=47.909137763,17.773245184</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>M5082</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Most medzi obcami Šintava a Pata</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>5</v>
+      </c>
+      <c r="D52" t="n">
+        <v>50.04</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps?q=48.270445469,17.836124989</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
           <t>M7046</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>Most cez potok Čierna Voda za obcou Čierna Voda</t>
         </is>
       </c>
-      <c r="C51" t="n">
-        <v>5</v>
-      </c>
-      <c r="D51" t="n">
+      <c r="C53" t="n">
+        <v>5</v>
+      </c>
+      <c r="D53" t="n">
         <v>44.9</v>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>https://www.google.com/maps?q=48.12958,17.65547</t>
         </is>
